--- a/data/excel/睿学vocabulary.xlsx
+++ b/data/excel/睿学vocabulary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15120" windowHeight="11100"/>
+    <workbookView windowWidth="28800" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="526">
   <si>
     <t>Lesson</t>
   </si>
@@ -43,265 +43,943 @@
     <t>Lesson 1</t>
   </si>
   <si>
-    <t>weather</t>
-  </si>
-  <si>
-    <t>天气</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>炎热的</t>
-  </si>
-  <si>
-    <t>warm</t>
-  </si>
-  <si>
-    <t>温暖的</t>
-  </si>
-  <si>
-    <t>cool</t>
-  </si>
-  <si>
-    <t>凉爽的</t>
-  </si>
-  <si>
-    <t>cold</t>
-  </si>
-  <si>
-    <t>寒冷的</t>
-  </si>
-  <si>
-    <t>foggy</t>
-  </si>
-  <si>
-    <t>有雾的</t>
-  </si>
-  <si>
-    <t>rainy</t>
-  </si>
-  <si>
-    <t>多雨的</t>
-  </si>
-  <si>
-    <t>sunny</t>
-  </si>
-  <si>
-    <t>晴朗的</t>
-  </si>
-  <si>
-    <t>windy</t>
-  </si>
-  <si>
-    <t>有风的</t>
-  </si>
-  <si>
-    <t>dry</t>
-  </si>
-  <si>
-    <t>干燥的</t>
-  </si>
-  <si>
-    <t>spring</t>
-  </si>
-  <si>
-    <t>春天</t>
-  </si>
-  <si>
-    <t>summer</t>
-  </si>
-  <si>
-    <t>夏天</t>
-  </si>
-  <si>
-    <t>autumn</t>
-  </si>
-  <si>
-    <t>秋天</t>
-  </si>
-  <si>
-    <t>winter</t>
-  </si>
-  <si>
-    <t>冬天</t>
+    <t>play badminton</t>
+  </si>
+  <si>
+    <t>打羽毛球</t>
+  </si>
+  <si>
+    <t>play basketball</t>
+  </si>
+  <si>
+    <t>打篮球</t>
+  </si>
+  <si>
+    <t>play football</t>
+  </si>
+  <si>
+    <t>踢足球</t>
+  </si>
+  <si>
+    <t>play table tennis</t>
+  </si>
+  <si>
+    <t>打乒乓球</t>
+  </si>
+  <si>
+    <t>play the guitar</t>
+  </si>
+  <si>
+    <t>弹吉他</t>
+  </si>
+  <si>
+    <t>play the piano</t>
+  </si>
+  <si>
+    <t>弹钢琴</t>
+  </si>
+  <si>
+    <t>play the recorder</t>
+  </si>
+  <si>
+    <t>吹竖笛</t>
+  </si>
+  <si>
+    <t>play the violin</t>
+  </si>
+  <si>
+    <t>拉小提琴</t>
+  </si>
+  <si>
+    <t>play Chinese chess</t>
+  </si>
+  <si>
+    <t>下中国象棋</t>
+  </si>
+  <si>
+    <t>play rugby</t>
+  </si>
+  <si>
+    <t>打橄榄球</t>
+  </si>
+  <si>
+    <t>egg-shaped</t>
+  </si>
+  <si>
+    <t>蛋型的</t>
+  </si>
+  <si>
+    <t>kick</t>
+  </si>
+  <si>
+    <t>踢</t>
+  </si>
+  <si>
+    <t>reporter</t>
+  </si>
+  <si>
+    <t>记者</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>有趣的</t>
+  </si>
+  <si>
+    <t>bagpipes</t>
+  </si>
+  <si>
+    <t>风笛</t>
+  </si>
+  <si>
+    <t>assembly</t>
+  </si>
+  <si>
+    <t>集会</t>
   </si>
   <si>
     <t>Lesson 2</t>
   </si>
   <si>
-    <t>season</t>
-  </si>
-  <si>
-    <t>季节</t>
-  </si>
-  <si>
-    <t>plant flowers</t>
-  </si>
-  <si>
-    <t>种花</t>
-  </si>
-  <si>
-    <t>go to the park</t>
-  </si>
-  <si>
-    <t>去公园</t>
-  </si>
-  <si>
-    <t>go swimming</t>
-  </si>
-  <si>
-    <t>游泳</t>
-  </si>
-  <si>
-    <t>eat ice cream</t>
-  </si>
-  <si>
-    <t>吃冰淇淋</t>
-  </si>
-  <si>
-    <t>fly kites</t>
+    <t>piper</t>
+  </si>
+  <si>
+    <t>风笛吹奏者</t>
+  </si>
+  <si>
+    <t>kilt</t>
+  </si>
+  <si>
+    <t>（苏格兰传统男式）短褶裙</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>参加</t>
+  </si>
+  <si>
+    <t>playground</t>
+  </si>
+  <si>
+    <t>操场；游乐场</t>
+  </si>
+  <si>
+    <t>sign up</t>
+  </si>
+  <si>
+    <t>报名</t>
+  </si>
+  <si>
+    <t>together</t>
+  </si>
+  <si>
+    <t>一起</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>有空的，空闲的</t>
+  </si>
+  <si>
+    <t>after-school class</t>
+  </si>
+  <si>
+    <t>课外班</t>
+  </si>
+  <si>
+    <t>craft</t>
+  </si>
+  <si>
+    <t>手工艺</t>
+  </si>
+  <si>
+    <t>Mon / Monday</t>
+  </si>
+  <si>
+    <t>星期一</t>
+  </si>
+  <si>
+    <t>Tue / Tuesday</t>
+  </si>
+  <si>
+    <t>星期二</t>
+  </si>
+  <si>
+    <t>Wed / Wednesday</t>
+  </si>
+  <si>
+    <t>星期三</t>
+  </si>
+  <si>
+    <t>Thu / Thursday</t>
+  </si>
+  <si>
+    <t>星期四</t>
+  </si>
+  <si>
+    <t>Fri / Friday</t>
+  </si>
+  <si>
+    <t>星期五</t>
+  </si>
+  <si>
+    <t>Sat / Saturday</t>
+  </si>
+  <si>
+    <t>星期六</t>
+  </si>
+  <si>
+    <t>Sun / Sunday</t>
+  </si>
+  <si>
+    <t>星期天</t>
+  </si>
+  <si>
+    <t>Lesson 3</t>
+  </si>
+  <si>
+    <t>Sports Day</t>
+  </si>
+  <si>
+    <t>运动会</t>
+  </si>
+  <si>
+    <t>Open Day</t>
+  </si>
+  <si>
+    <t>开放日</t>
+  </si>
+  <si>
+    <t>Parents' Day</t>
+  </si>
+  <si>
+    <t>家长日</t>
+  </si>
+  <si>
+    <t>Test Week</t>
+  </si>
+  <si>
+    <t>测试周</t>
+  </si>
+  <si>
+    <t>Exam Week</t>
+  </si>
+  <si>
+    <t>考试周</t>
+  </si>
+  <si>
+    <t>the school picnic</t>
+  </si>
+  <si>
+    <t>学校野餐，学校郊游</t>
+  </si>
+  <si>
+    <t>English Camp</t>
+  </si>
+  <si>
+    <t>英语营</t>
+  </si>
+  <si>
+    <t>school event</t>
+  </si>
+  <si>
+    <t>学校活动</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>月份</t>
+  </si>
+  <si>
+    <t>favourite</t>
+  </si>
+  <si>
+    <t>最喜欢的</t>
+  </si>
+  <si>
+    <t>Book Week</t>
+  </si>
+  <si>
+    <t>阅读周</t>
+  </si>
+  <si>
+    <t>because</t>
+  </si>
+  <si>
+    <t>因为</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>令人惊异的</t>
+  </si>
+  <si>
+    <t>dress up</t>
+  </si>
+  <si>
+    <t>装扮</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>作者</t>
+  </si>
+  <si>
+    <t>pupil</t>
+  </si>
+  <si>
+    <t>小学生</t>
+  </si>
+  <si>
+    <t>Lesson 4</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>一月</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>二月</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>三月</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>四月</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>五月</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>六月</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>七月</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>八月</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>九月</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>十月</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>十一月</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>十二月</t>
+  </si>
+  <si>
+    <t>Teachers' Day</t>
+  </si>
+  <si>
+    <t>教师节</t>
+  </si>
+  <si>
+    <t>cloth</t>
+  </si>
+  <si>
+    <t>布</t>
+  </si>
+  <si>
+    <t>deaf</t>
+  </si>
+  <si>
+    <t>聋的</t>
+  </si>
+  <si>
+    <t>thirsty</t>
+  </si>
+  <si>
+    <t>口渴的</t>
+  </si>
+  <si>
+    <t>Lesson 5</t>
+  </si>
+  <si>
+    <t>first (1st)</t>
+  </si>
+  <si>
+    <t>第一（的）</t>
+  </si>
+  <si>
+    <t>second (2nd)</t>
+  </si>
+  <si>
+    <t>第二（的）</t>
+  </si>
+  <si>
+    <t>third (3rd)</t>
+  </si>
+  <si>
+    <t>第三（的）</t>
+  </si>
+  <si>
+    <t>fourth (4th)</t>
+  </si>
+  <si>
+    <t>第四（的）</t>
+  </si>
+  <si>
+    <t>fifth (5th)</t>
+  </si>
+  <si>
+    <t>第五（的）</t>
+  </si>
+  <si>
+    <t>sixth (6th)</t>
+  </si>
+  <si>
+    <t>第六（的）</t>
+  </si>
+  <si>
+    <t>seventh (7th)</t>
+  </si>
+  <si>
+    <t>第七（的）</t>
+  </si>
+  <si>
+    <t>eighth (8th)</t>
+  </si>
+  <si>
+    <t>第八（的）</t>
+  </si>
+  <si>
+    <t>ninth (9th)</t>
+  </si>
+  <si>
+    <t>第九（的）</t>
+  </si>
+  <si>
+    <t>tenth (10th)</t>
+  </si>
+  <si>
+    <t>第十（的）</t>
+  </si>
+  <si>
+    <t>eleventh (11th)</t>
+  </si>
+  <si>
+    <t>第十一（的）</t>
+  </si>
+  <si>
+    <t>twelfth (12th)</t>
+  </si>
+  <si>
+    <t>第十二（的）</t>
+  </si>
+  <si>
+    <t>twentieth (20th)</t>
+  </si>
+  <si>
+    <t>第二十（的）</t>
+  </si>
+  <si>
+    <t>twenty-fifth (25th)</t>
+  </si>
+  <si>
+    <t>第二十五（的）</t>
+  </si>
+  <si>
+    <t>thirtieth (30th)</t>
+  </si>
+  <si>
+    <t>第三十（的）</t>
+  </si>
+  <si>
+    <t>thirty-first (31st)</t>
+  </si>
+  <si>
+    <t>第三十一（的）</t>
+  </si>
+  <si>
+    <t>Lesson 6</t>
+  </si>
+  <si>
+    <t>a book shop</t>
+  </si>
+  <si>
+    <t>书店</t>
+  </si>
+  <si>
+    <t>a clothes shop</t>
+  </si>
+  <si>
+    <t>服装店</t>
+  </si>
+  <si>
+    <t>a sportswear shop</t>
+  </si>
+  <si>
+    <t>运动服装店</t>
+  </si>
+  <si>
+    <t>a gift shop</t>
+  </si>
+  <si>
+    <t>礼品店</t>
+  </si>
+  <si>
+    <t>a sweet shop</t>
+  </si>
+  <si>
+    <t>糖果店</t>
+  </si>
+  <si>
+    <t>a cinema</t>
+  </si>
+  <si>
+    <t>电影院</t>
+  </si>
+  <si>
+    <t>a cafe</t>
+  </si>
+  <si>
+    <t>咖啡店</t>
+  </si>
+  <si>
+    <t>a restaurant</t>
+  </si>
+  <si>
+    <t>饭店</t>
+  </si>
+  <si>
+    <t>a hotel</t>
+  </si>
+  <si>
+    <t>酒店</t>
+  </si>
+  <si>
+    <t>shopping centre</t>
+  </si>
+  <si>
+    <t>购物中心</t>
+  </si>
+  <si>
+    <t>buy a comic</t>
+  </si>
+  <si>
+    <t>买一本漫画书</t>
+  </si>
+  <si>
+    <t>buy jeans</t>
+  </si>
+  <si>
+    <t>买牛仔裤</t>
+  </si>
+  <si>
+    <t>buy trainers</t>
+  </si>
+  <si>
+    <t>买运动鞋</t>
+  </si>
+  <si>
+    <t>buy a card</t>
+  </si>
+  <si>
+    <t>买卡片</t>
+  </si>
+  <si>
+    <t>buy sweets and chocolate</t>
+  </si>
+  <si>
+    <t>买糖果和巧克力</t>
+  </si>
+  <si>
+    <t>watch a film</t>
+  </si>
+  <si>
+    <t>看电影</t>
+  </si>
+  <si>
+    <t>Lesson 7</t>
+  </si>
+  <si>
+    <t>have afternoon tea</t>
+  </si>
+  <si>
+    <t>喝下午茶</t>
+  </si>
+  <si>
+    <t>eat dim sum</t>
+  </si>
+  <si>
+    <t>吃点心</t>
+  </si>
+  <si>
+    <t>have buffet lunch</t>
+  </si>
+  <si>
+    <t>吃自助午餐</t>
+  </si>
+  <si>
+    <t>already</t>
+  </si>
+  <si>
+    <t>已经</t>
+  </si>
+  <si>
+    <t>wheel</t>
+  </si>
+  <si>
+    <t>轮子</t>
+  </si>
+  <si>
+    <t>directory</t>
+  </si>
+  <si>
+    <t>楼层示意图</t>
+  </si>
+  <si>
+    <t>second floor</t>
+  </si>
+  <si>
+    <t>二楼</t>
+  </si>
+  <si>
+    <t>toy shop</t>
+  </si>
+  <si>
+    <t>玩具店</t>
+  </si>
+  <si>
+    <t>robot</t>
+  </si>
+  <si>
+    <t>机器人</t>
+  </si>
+  <si>
+    <t>on the way</t>
+  </si>
+  <si>
+    <t>途中</t>
+  </si>
+  <si>
+    <t>photo</t>
+  </si>
+  <si>
+    <t>照片</t>
+  </si>
+  <si>
+    <t>goodies</t>
+  </si>
+  <si>
+    <t>好吃的东西（复数）</t>
+  </si>
+  <si>
+    <t>chart</t>
+  </si>
+  <si>
+    <t>图表</t>
+  </si>
+  <si>
+    <t>large</t>
+  </si>
+  <si>
+    <t>大的</t>
+  </si>
+  <si>
+    <t>cart</t>
+  </si>
+  <si>
+    <t>手推车</t>
+  </si>
+  <si>
+    <t>candy bar</t>
+  </si>
+  <si>
+    <t>糖果棒</t>
+  </si>
+  <si>
+    <t>Lesson 8</t>
+  </si>
+  <si>
+    <t>build a sandcastle</t>
+  </si>
+  <si>
+    <t>堆沙城堡</t>
+  </si>
+  <si>
+    <t>look at shells</t>
+  </si>
+  <si>
+    <t>观赏贝壳</t>
+  </si>
+  <si>
+    <t>fly a kite</t>
   </si>
   <si>
     <t>放风筝</t>
   </si>
   <si>
-    <t>go hiking</t>
-  </si>
-  <si>
-    <t>去徒步</t>
-  </si>
-  <si>
-    <t>eat hotpot</t>
-  </si>
-  <si>
-    <t>吃火锅</t>
-  </si>
-  <si>
-    <t>wear a scarf</t>
-  </si>
-  <si>
-    <t>戴围巾</t>
-  </si>
-  <si>
-    <t>feather</t>
-  </si>
-  <si>
-    <t>羽毛</t>
-  </si>
-  <si>
-    <t>thunder</t>
-  </si>
-  <si>
-    <t>雷声</t>
-  </si>
-  <si>
-    <t>lightning</t>
-  </si>
-  <si>
-    <t>闪电</t>
-  </si>
-  <si>
-    <t>a sunny smile</t>
-  </si>
-  <si>
-    <t>阳光般的微笑</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>友善的</t>
-  </si>
-  <si>
-    <t>Lesson 3</t>
-  </si>
-  <si>
-    <t>festival</t>
-  </si>
-  <si>
-    <t>节日</t>
-  </si>
-  <si>
-    <t>Chinese New Year</t>
-  </si>
-  <si>
-    <t>农历新年</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>收到</t>
-  </si>
-  <si>
-    <t>lucky money</t>
-  </si>
-  <si>
-    <t>压岁钱</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>看</t>
-  </si>
-  <si>
-    <t>fireworks</t>
-  </si>
-  <si>
-    <t>烟花（复数）</t>
-  </si>
-  <si>
-    <t>Mid-Autumn Festival</t>
-  </si>
-  <si>
-    <t>中秋节</t>
-  </si>
-  <si>
-    <t>eat</t>
-  </si>
-  <si>
-    <t>吃</t>
-  </si>
-  <si>
-    <t>moon cakes</t>
-  </si>
-  <si>
-    <t>月饼（复数）</t>
-  </si>
-  <si>
-    <t>play with</t>
-  </si>
-  <si>
-    <t>和……玩/玩某物</t>
-  </si>
-  <si>
-    <t>lanterns</t>
-  </si>
-  <si>
-    <t>灯笼（复数）</t>
-  </si>
-  <si>
-    <t>Dragon Boat Festival</t>
-  </si>
-  <si>
-    <t>端午节，龙舟节</t>
-  </si>
-  <si>
-    <t>races</t>
-  </si>
-  <si>
-    <t>比赛（复数）</t>
-  </si>
-  <si>
-    <t>rice dumplings</t>
-  </si>
-  <si>
-    <t>粽子（复数）</t>
-  </si>
-  <si>
-    <t>Lesson 4</t>
+    <t>have a barbecue</t>
+  </si>
+  <si>
+    <t>烧烤</t>
+  </si>
+  <si>
+    <t>have a picnic</t>
+  </si>
+  <si>
+    <t>野餐</t>
+  </si>
+  <si>
+    <t>take photos</t>
+  </si>
+  <si>
+    <t>拍照</t>
+  </si>
+  <si>
+    <t>go camping</t>
+  </si>
+  <si>
+    <t>去露营</t>
+  </si>
+  <si>
+    <t>feed animals</t>
+  </si>
+  <si>
+    <t>喂动物</t>
+  </si>
+  <si>
+    <t>plant vegetables</t>
+  </si>
+  <si>
+    <t>种植蔬菜</t>
+  </si>
+  <si>
+    <t>pick fruit</t>
+  </si>
+  <si>
+    <t>采摘水果</t>
+  </si>
+  <si>
+    <t>outdoor activities</t>
+  </si>
+  <si>
+    <t>户外活动（复数）</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>主题</t>
+  </si>
+  <si>
+    <t>something</t>
+  </si>
+  <si>
+    <t>某事</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>或许</t>
+  </si>
+  <si>
+    <t>tent</t>
+  </si>
+  <si>
+    <t>帐篷</t>
+  </si>
+  <si>
+    <t>wave</t>
+  </si>
+  <si>
+    <t>海浪</t>
+  </si>
+  <si>
+    <t>Lesson 9</t>
+  </si>
+  <si>
+    <t>pirate</t>
+  </si>
+  <si>
+    <t>海盗</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>最后</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>完美的</t>
+  </si>
+  <si>
+    <t>sandball</t>
+  </si>
+  <si>
+    <t>沙球</t>
+  </si>
+  <si>
+    <t>silver lining</t>
+  </si>
+  <si>
+    <t>一线希望</t>
+  </si>
+  <si>
+    <t>look on the bright side</t>
+  </si>
+  <si>
+    <t>往好的方向想</t>
+  </si>
+  <si>
+    <t>feeding zone</t>
+  </si>
+  <si>
+    <t>喂食区</t>
+  </si>
+  <si>
+    <t>vegetable garden</t>
+  </si>
+  <si>
+    <t>蔬菜园</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>厨房</t>
+  </si>
+  <si>
+    <t>idea</t>
+  </si>
+  <si>
+    <t>主意；观点</t>
+  </si>
+  <si>
+    <t>outing</t>
+  </si>
+  <si>
+    <t>外出；郊游</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>打电话</t>
+  </si>
+  <si>
+    <t>pony</t>
+  </si>
+  <si>
+    <t>小马</t>
+  </si>
+  <si>
+    <t>trophy</t>
+  </si>
+  <si>
+    <t>奖杯</t>
+  </si>
+  <si>
+    <t>Lesson 10</t>
+  </si>
+  <si>
+    <t>grassland</t>
+  </si>
+  <si>
+    <t>草地</t>
+  </si>
+  <si>
+    <t>anytime</t>
+  </si>
+  <si>
+    <t>任何时间</t>
+  </si>
+  <si>
+    <t>fruit garden</t>
+  </si>
+  <si>
+    <t>果园</t>
+  </si>
+  <si>
+    <t>write an email</t>
+  </si>
+  <si>
+    <t>写一封邮件</t>
+  </si>
+  <si>
+    <t>receive an email</t>
+  </si>
+  <si>
+    <t>收到一封邮件</t>
+  </si>
+  <si>
+    <t>send an email</t>
+  </si>
+  <si>
+    <t>发送一封邮件</t>
+  </si>
+  <si>
+    <t>reply soon</t>
+  </si>
+  <si>
+    <t>尽快回复</t>
+  </si>
+  <si>
+    <t>write soon</t>
+  </si>
+  <si>
+    <t>尽快写信回复</t>
+  </si>
+  <si>
+    <t>during</t>
+  </si>
+  <si>
+    <t>在      期间</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>恐怖的</t>
   </si>
   <si>
     <t>Christmas</t>
@@ -310,115 +988,434 @@
     <t>圣诞节</t>
   </si>
   <si>
-    <t>give presents</t>
-  </si>
-  <si>
-    <t>送礼物</t>
-  </si>
-  <si>
-    <t>send cards</t>
-  </si>
-  <si>
-    <t>寄贺卡</t>
-  </si>
-  <si>
-    <t>Easter</t>
-  </si>
-  <si>
-    <t>复活节</t>
-  </si>
-  <si>
-    <t>chocolate</t>
-  </si>
-  <si>
-    <t>巧克力</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>网站</t>
-  </si>
-  <si>
-    <t>Macau</t>
-  </si>
-  <si>
-    <t>澳门</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>香港</t>
-  </si>
-  <si>
-    <t>everywhere</t>
-  </si>
-  <si>
-    <t>到处</t>
-  </si>
-  <si>
-    <t>ice cream</t>
-  </si>
-  <si>
-    <t>冰淇淋</t>
-  </si>
-  <si>
-    <t>salty</t>
-  </si>
-  <si>
-    <t>咸的</t>
-  </si>
-  <si>
-    <t>inside</t>
-  </si>
-  <si>
-    <t>里面</t>
-  </si>
-  <si>
-    <t>pomelo</t>
-  </si>
-  <si>
-    <t>柚子</t>
-  </si>
-  <si>
-    <t>photo</t>
-  </si>
-  <si>
-    <t>照片</t>
-  </si>
-  <si>
-    <t>Lesson 5</t>
-  </si>
-  <si>
-    <t>have barbecues</t>
-  </si>
-  <si>
-    <t>烧烤</t>
-  </si>
-  <si>
-    <t>colourful</t>
-  </si>
-  <si>
-    <t>色彩缤纷的</t>
-  </si>
-  <si>
-    <t>smell</t>
-  </si>
-  <si>
-    <t>闻到</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>总是</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>假日；度假期</t>
+    <t>date</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>rock climbing</t>
+  </si>
+  <si>
+    <t>攀岩</t>
+  </si>
+  <si>
+    <t>that day</t>
+  </si>
+  <si>
+    <t>那天</t>
+  </si>
+  <si>
+    <t>ice-skating</t>
+  </si>
+  <si>
+    <t>溜冰</t>
+  </si>
+  <si>
+    <t>rink</t>
+  </si>
+  <si>
+    <t>溜冰场</t>
+  </si>
+  <si>
+    <t>Lesson 11</t>
+  </si>
+  <si>
+    <t>get together</t>
+  </si>
+  <si>
+    <t>聚会；团聚</t>
+  </si>
+  <si>
+    <t>during the holidays</t>
+  </si>
+  <si>
+    <t>在假期期间</t>
+  </si>
+  <si>
+    <t>play date</t>
+  </si>
+  <si>
+    <t>玩耍约会时间（通常指小孩子约
+定一起玩耍的时间）</t>
+  </si>
+  <si>
+    <t>close friends</t>
+  </si>
+  <si>
+    <t>要好的朋友，密友</t>
+  </si>
+  <si>
+    <t>family members</t>
+  </si>
+  <si>
+    <t>家庭成员</t>
+  </si>
+  <si>
+    <t>I can't wait!</t>
+  </si>
+  <si>
+    <t>我等不及了！我迫不及待了!</t>
+  </si>
+  <si>
+    <t>I'm free...</t>
+  </si>
+  <si>
+    <t>我（在      时候）有空</t>
+  </si>
+  <si>
+    <t>summer holidays</t>
+  </si>
+  <si>
+    <t>暑假；夏季假期</t>
+  </si>
+  <si>
+    <t>hair salon</t>
+  </si>
+  <si>
+    <t>美发店</t>
+  </si>
+  <si>
+    <t>photo studio</t>
+  </si>
+  <si>
+    <t>照相馆；摄影工作室</t>
+  </si>
+  <si>
+    <t>costumes</t>
+  </si>
+  <si>
+    <t>服装（costume 的复数形式）</t>
+  </si>
+  <si>
+    <t>ball pools</t>
+  </si>
+  <si>
+    <t>波波池（一种儿童游乐设施）</t>
+  </si>
+  <si>
+    <t>bumper cars</t>
+  </si>
+  <si>
+    <t>碰碰车（一种游乐设施）</t>
+  </si>
+  <si>
+    <t>merry-go-round</t>
+  </si>
+  <si>
+    <t>旋转木马</t>
+  </si>
+  <si>
+    <t>fountain</t>
+  </si>
+  <si>
+    <t>喷泉</t>
+  </si>
+  <si>
+    <t>slow down</t>
+  </si>
+  <si>
+    <t>放慢；减速</t>
+  </si>
+  <si>
+    <t>Lesson 12</t>
+  </si>
+  <si>
+    <t>ham</t>
+  </si>
+  <si>
+    <t>火腿</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>芝士</t>
+  </si>
+  <si>
+    <t>butter</t>
+  </si>
+  <si>
+    <t>牛油</t>
+  </si>
+  <si>
+    <t>jam</t>
+  </si>
+  <si>
+    <t>果酱</t>
+  </si>
+  <si>
+    <t>salt</t>
+  </si>
+  <si>
+    <t>盐</t>
+  </si>
+  <si>
+    <t>sugar</t>
+  </si>
+  <si>
+    <t>糖</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>饭</t>
+  </si>
+  <si>
+    <t>congee</t>
+  </si>
+  <si>
+    <t>粥</t>
+  </si>
+  <si>
+    <t>soup</t>
+  </si>
+  <si>
+    <t>汤</t>
+  </si>
+  <si>
+    <t>a mushroom</t>
+  </si>
+  <si>
+    <t>一个蘑菇</t>
+  </si>
+  <si>
+    <t>an onion</t>
+  </si>
+  <si>
+    <t>一个洋葱</t>
+  </si>
+  <si>
+    <t>a sausage</t>
+  </si>
+  <si>
+    <t>一根香肠</t>
+  </si>
+  <si>
+    <t>vegetables</t>
+  </si>
+  <si>
+    <t>蔬菜（复数）</t>
+  </si>
+  <si>
+    <t>noodles</t>
+  </si>
+  <si>
+    <t>面条</t>
+  </si>
+  <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>话剧</t>
+  </si>
+  <si>
+    <t>excuse me</t>
+  </si>
+  <si>
+    <t>不好意思，打扰一下</t>
+  </si>
+  <si>
+    <t>Lesson 13</t>
+  </si>
+  <si>
+    <t>hungry</t>
+  </si>
+  <si>
+    <t>饥饿的</t>
+  </si>
+  <si>
+    <t>caring and sharing</t>
+  </si>
+  <si>
+    <t>关怀与分享</t>
+  </si>
+  <si>
+    <t>villager</t>
+  </si>
+  <si>
+    <t>村民</t>
+  </si>
+  <si>
+    <t>sniff</t>
+  </si>
+  <si>
+    <t>嗅</t>
+  </si>
+  <si>
+    <t>narrator</t>
+  </si>
+  <si>
+    <t>旁白</t>
+  </si>
+  <si>
+    <t>pot</t>
+  </si>
+  <si>
+    <t>锅</t>
+  </si>
+  <si>
+    <t>stone</t>
+  </si>
+  <si>
+    <t>石头</t>
+  </si>
+  <si>
+    <t>go away</t>
+  </si>
+  <si>
+    <t>走开</t>
+  </si>
+  <si>
+    <t>delicious</t>
+  </si>
+  <si>
+    <t>美味的</t>
+  </si>
+  <si>
+    <t>monk</t>
+  </si>
+  <si>
+    <t>和尚</t>
+  </si>
+  <si>
+    <t>everybody</t>
+  </si>
+  <si>
+    <t>所有人</t>
+  </si>
+  <si>
+    <t>shout</t>
+  </si>
+  <si>
+    <t>大叫</t>
+  </si>
+  <si>
+    <t>taste</t>
+  </si>
+  <si>
+    <t>尝；品尝</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>肉</t>
+  </si>
+  <si>
+    <t>carrots</t>
+  </si>
+  <si>
+    <t>胡萝卜（复数）</t>
+  </si>
+  <si>
+    <t>tomatoes</t>
+  </si>
+  <si>
+    <t>番茄（复数）</t>
+  </si>
+  <si>
+    <t>Lesson 14</t>
+  </si>
+  <si>
+    <t>a slice of pizza</t>
+  </si>
+  <si>
+    <t>一片披萨</t>
+  </si>
+  <si>
+    <t>a box of chicken wings</t>
+  </si>
+  <si>
+    <t>一盒鸡翅</t>
+  </si>
+  <si>
+    <t>a packet of French fries</t>
+  </si>
+  <si>
+    <t>一盒薯条</t>
+  </si>
+  <si>
+    <t>a packet of potato chips</t>
+  </si>
+  <si>
+    <t>一包薯片</t>
+  </si>
+  <si>
+    <t>a bowl of corn</t>
+  </si>
+  <si>
+    <t>一碗玉米</t>
+  </si>
+  <si>
+    <t>a hamburger</t>
+  </si>
+  <si>
+    <t>一个汉堡</t>
+  </si>
+  <si>
+    <t>a hot dog</t>
+  </si>
+  <si>
+    <t>一根热狗</t>
+  </si>
+  <si>
+    <t>an apple pie</t>
+  </si>
+  <si>
+    <t>一个苹果派</t>
+  </si>
+  <si>
+    <t>a cup of lemon tea</t>
+  </si>
+  <si>
+    <t>一杯柠檬茶</t>
+  </si>
+  <si>
+    <t>a cup of hot chocolate</t>
+  </si>
+  <si>
+    <t>一杯热巧克力</t>
+  </si>
+  <si>
+    <t>a bottle of water</t>
+  </si>
+  <si>
+    <t>一瓶水</t>
+  </si>
+  <si>
+    <t>a can of cola</t>
+  </si>
+  <si>
+    <t>一罐可乐</t>
+  </si>
+  <si>
+    <t>cashier</t>
+  </si>
+  <si>
+    <t>收银员</t>
+  </si>
+  <si>
+    <t>altogether</t>
+  </si>
+  <si>
+    <t>总共</t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>柜台</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>点餐</t>
+  </si>
+  <si>
+    <t>Lesson 15</t>
   </si>
   <si>
     <t>which</t>
@@ -427,10 +1424,172 @@
     <t>哪一个</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>最</t>
+    <t>appear</t>
+  </si>
+  <si>
+    <t>出现</t>
+  </si>
+  <si>
+    <t>superhero</t>
+  </si>
+  <si>
+    <t>超级英雄</t>
+  </si>
+  <si>
+    <t>suddenly</t>
+  </si>
+  <si>
+    <t>突然</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>问题</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>替代</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>有效的</t>
+  </si>
+  <si>
+    <t>expensive</t>
+  </si>
+  <si>
+    <t>昂贵的</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>数</t>
+  </si>
+  <si>
+    <t>tea time special</t>
+  </si>
+  <si>
+    <t>下午茶特价</t>
+  </si>
+  <si>
+    <t>chicken nugget</t>
+  </si>
+  <si>
+    <t>鸡块</t>
+  </si>
+  <si>
+    <t>for here</t>
+  </si>
+  <si>
+    <t>堂食</t>
+  </si>
+  <si>
+    <t>to go</t>
+  </si>
+  <si>
+    <t>外卖</t>
+  </si>
+  <si>
+    <t>brainstorm</t>
+  </si>
+  <si>
+    <t>头脑风暴</t>
+  </si>
+  <si>
+    <t>learn a lesson</t>
+  </si>
+  <si>
+    <t>学会一个教训</t>
+  </si>
+  <si>
+    <t>Lesson 16</t>
+  </si>
+  <si>
+    <t>take place</t>
+  </si>
+  <si>
+    <t>发生</t>
+  </si>
+  <si>
+    <t>beginning</t>
+  </si>
+  <si>
+    <t>开头</t>
+  </si>
+  <si>
+    <t>middle</t>
+  </si>
+  <si>
+    <t>中段</t>
+  </si>
+  <si>
+    <t>happen</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>改变</t>
+  </si>
+  <si>
+    <t>ending</t>
+  </si>
+  <si>
+    <t>结尾</t>
+  </si>
+  <si>
+    <t>solve the problem</t>
+  </si>
+  <si>
+    <t>解决问题</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>图片</t>
+  </si>
+  <si>
+    <t>when</t>
+  </si>
+  <si>
+    <t>什么时候</t>
+  </si>
+  <si>
+    <t>where</t>
+  </si>
+  <si>
+    <t>哪里</t>
+  </si>
+  <si>
+    <t>who</t>
+  </si>
+  <si>
+    <t>谁</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>什么</t>
+  </si>
+  <si>
+    <t>how</t>
+  </si>
+  <si>
+    <t>怎样</t>
   </si>
   <si>
     <t>why</t>
@@ -439,946 +1598,16 @@
     <t>为什么</t>
   </si>
   <si>
-    <t>because</t>
-  </si>
-  <si>
-    <t>因为</t>
-  </si>
-  <si>
-    <t>春节</t>
-  </si>
-  <si>
-    <t>Lesson 6</t>
-  </si>
-  <si>
-    <t>event</t>
-  </si>
-  <si>
-    <t>事件；活动</t>
-  </si>
-  <si>
-    <t>Open Day</t>
-  </si>
-  <si>
-    <t>开放日</t>
-  </si>
-  <si>
-    <t>Speech Day</t>
-  </si>
-  <si>
-    <t>毕业典礼；演讲日</t>
-  </si>
-  <si>
-    <t>Parents' Day</t>
-  </si>
-  <si>
-    <t>家长日</t>
-  </si>
-  <si>
-    <t>Sports Day</t>
-  </si>
-  <si>
-    <t>运动会</t>
-  </si>
-  <si>
-    <t>the school picnic</t>
-  </si>
-  <si>
-    <t>学校野餐；学校郊游</t>
-  </si>
-  <si>
-    <t>the school fair</t>
-  </si>
-  <si>
-    <t>学校游园会；学校义卖会</t>
-  </si>
-  <si>
-    <t>the school concert</t>
-  </si>
-  <si>
-    <t>学校音乐会</t>
-  </si>
-  <si>
-    <t>the swimming gala</t>
-  </si>
-  <si>
-    <t>游泳比赛</t>
-  </si>
-  <si>
-    <t>handbook</t>
-  </si>
-  <si>
-    <t>手册</t>
-  </si>
-  <si>
-    <t>wait</t>
-  </si>
-  <si>
-    <t>等待</t>
-  </si>
-  <si>
-    <t>trumpet</t>
-  </si>
-  <si>
-    <t>小号</t>
-  </si>
-  <si>
-    <t>idea</t>
-  </si>
-  <si>
-    <t>主意</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>超级（棒）的</t>
-  </si>
-  <si>
-    <t>Lesson 7</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>月份</t>
-  </si>
-  <si>
-    <t>January</t>
-  </si>
-  <si>
-    <t>一月</t>
-  </si>
-  <si>
-    <t>February</t>
-  </si>
-  <si>
-    <t>二月</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
-    <t>三月</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>四月</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>五月</t>
-  </si>
-  <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>六月</t>
-  </si>
-  <si>
-    <t>July</t>
-  </si>
-  <si>
-    <t>七月</t>
-  </si>
-  <si>
-    <t>August</t>
-  </si>
-  <si>
-    <t>八月</t>
-  </si>
-  <si>
-    <t>September</t>
-  </si>
-  <si>
-    <t>九月</t>
-  </si>
-  <si>
-    <t>October</t>
-  </si>
-  <si>
-    <t>十月</t>
-  </si>
-  <si>
-    <t>November</t>
-  </si>
-  <si>
-    <t>十一月</t>
-  </si>
-  <si>
-    <t>December</t>
-  </si>
-  <si>
-    <t>十二月</t>
-  </si>
-  <si>
-    <t>Lesson 8</t>
-  </si>
-  <si>
-    <t>when</t>
-  </si>
-  <si>
-    <t>什么时候</t>
-  </si>
-  <si>
-    <t>first (1st)</t>
-  </si>
-  <si>
-    <t>第一（的）</t>
-  </si>
-  <si>
-    <t>second (2nd)</t>
-  </si>
-  <si>
-    <t>第二（的）</t>
-  </si>
-  <si>
-    <t>third (3rd)</t>
-  </si>
-  <si>
-    <t>第三（的）</t>
-  </si>
-  <si>
-    <t>fourth (4th)</t>
-  </si>
-  <si>
-    <t>第四（的）</t>
-  </si>
-  <si>
-    <t>fifth (5th)</t>
-  </si>
-  <si>
-    <t>第五（的）</t>
-  </si>
-  <si>
-    <t>sixth (6th)</t>
-  </si>
-  <si>
-    <t>第六（的）</t>
-  </si>
-  <si>
-    <t>seventh (7th)</t>
-  </si>
-  <si>
-    <t>第七（的）</t>
-  </si>
-  <si>
-    <t>eighth (8th)</t>
-  </si>
-  <si>
-    <t>第八（的）</t>
-  </si>
-  <si>
-    <t>ninth (9th)</t>
-  </si>
-  <si>
-    <t>第九（的）</t>
-  </si>
-  <si>
-    <t>tenth (10th)</t>
-  </si>
-  <si>
-    <t>第十（的）</t>
-  </si>
-  <si>
-    <t>eleventh (11th)</t>
-  </si>
-  <si>
-    <t>第十一（的）</t>
-  </si>
-  <si>
-    <t>twelfth (12th)</t>
-  </si>
-  <si>
-    <t>第十二（的）</t>
-  </si>
-  <si>
-    <t>fifteenth (15th)</t>
-  </si>
-  <si>
-    <t>第十五（的）</t>
-  </si>
-  <si>
-    <t>Lesson 9</t>
-  </si>
-  <si>
-    <t>place</t>
-  </si>
-  <si>
-    <t>地方；地点</t>
-  </si>
-  <si>
-    <t>classroom</t>
-  </si>
-  <si>
-    <t>教室</t>
-  </si>
-  <si>
-    <t>art room</t>
-  </si>
-  <si>
-    <t>美术室</t>
-  </si>
-  <si>
-    <t>computer room</t>
-  </si>
-  <si>
-    <t>电脑室</t>
-  </si>
-  <si>
-    <t>music room</t>
-  </si>
-  <si>
-    <t>音乐室</t>
-  </si>
-  <si>
-    <t>library</t>
-  </si>
-  <si>
-    <t>图书馆</t>
-  </si>
-  <si>
-    <t>school hall</t>
-  </si>
-  <si>
-    <t>学校礼堂</t>
-  </si>
-  <si>
-    <t>lift</t>
-  </si>
-  <si>
-    <t>电梯（直梯）</t>
-  </si>
-  <si>
-    <t>toilets</t>
-  </si>
-  <si>
-    <t>厕所（复数）</t>
-  </si>
-  <si>
-    <t>visit</t>
-  </si>
-  <si>
-    <t>参观</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>无聊的</t>
-  </si>
-  <si>
-    <t>next to</t>
-  </si>
-  <si>
-    <t>在……旁边</t>
-  </si>
-  <si>
-    <t>on the left</t>
-  </si>
-  <si>
-    <t>在左边</t>
-  </si>
-  <si>
-    <t>on the right</t>
-  </si>
-  <si>
-    <t>在右边</t>
-  </si>
-  <si>
-    <t>Lesson 10</t>
-  </si>
-  <si>
-    <t>ground floor</t>
-  </si>
-  <si>
-    <t>地面层（G/F)</t>
-  </si>
-  <si>
-    <t>first floor</t>
-  </si>
-  <si>
-    <t>一楼（1/F)</t>
-  </si>
-  <si>
-    <t>second floor</t>
-  </si>
-  <si>
-    <t>二楼（2/F)</t>
-  </si>
-  <si>
-    <t>third floor</t>
-  </si>
-  <si>
-    <t>三楼（3/F)</t>
-  </si>
-  <si>
-    <t>fourth floor</t>
-  </si>
-  <si>
-    <t>四楼（4/F)</t>
-  </si>
-  <si>
-    <t>fifth floor</t>
-  </si>
-  <si>
-    <t>五楼（5/F)</t>
-  </si>
-  <si>
-    <t>sixth floor</t>
-  </si>
-  <si>
-    <t>六楼（6/F)</t>
-  </si>
-  <si>
-    <t>draw</t>
-  </si>
-  <si>
-    <t>画画</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>绘画</t>
-  </si>
-  <si>
-    <t>storybook</t>
-  </si>
-  <si>
-    <t>故事书</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>游戏</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>猜测</t>
-  </si>
-  <si>
-    <t>can</t>
-  </si>
-  <si>
-    <t>可以</t>
-  </si>
-  <si>
-    <t>where</t>
-  </si>
-  <si>
-    <t>哪里</t>
-  </si>
-  <si>
-    <t>Lesson 11</t>
-  </si>
-  <si>
-    <t>room</t>
-  </si>
-  <si>
-    <t>房间</t>
-  </si>
-  <si>
-    <t>棒，酷</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>食物</t>
-  </si>
-  <si>
-    <t>moon</t>
-  </si>
-  <si>
-    <t>月亮</t>
-  </si>
-  <si>
-    <t>balloon</t>
-  </si>
-  <si>
-    <t>气球</t>
-  </si>
-  <si>
-    <t>hoop</t>
-  </si>
-  <si>
-    <t>呼啦圈</t>
-  </si>
-  <si>
-    <t>root</t>
-  </si>
-  <si>
-    <t>根</t>
-  </si>
-  <si>
-    <t>lie</t>
-  </si>
-  <si>
-    <t>位于</t>
-  </si>
-  <si>
-    <t>swimming pool</t>
-  </si>
-  <si>
-    <t>游泳池</t>
-  </si>
-  <si>
-    <t>cosy</t>
-  </si>
-  <si>
-    <t>温暖舒适的</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>很多的</t>
-  </si>
-  <si>
-    <t>more</t>
-  </si>
-  <si>
-    <t>更多的</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>图画，图片</t>
-  </si>
-  <si>
-    <t>follow</t>
-  </si>
-  <si>
-    <t>跟着</t>
-  </si>
-  <si>
-    <t>Lesson 12</t>
-  </si>
-  <si>
-    <t>country park</t>
-  </si>
-  <si>
-    <t>郊野公园</t>
-  </si>
-  <si>
-    <t>beach</t>
-  </si>
-  <si>
-    <t>沙滩</t>
-  </si>
-  <si>
-    <t>fast food shop</t>
-  </si>
-  <si>
-    <t>快餐店</t>
-  </si>
-  <si>
-    <t>restaurant</t>
-  </si>
-  <si>
-    <t>餐厅；饭店</t>
-  </si>
-  <si>
-    <t>hotel</t>
-  </si>
-  <si>
-    <t>酒店；旅馆</t>
-  </si>
-  <si>
-    <t>shopping centre</t>
-  </si>
-  <si>
-    <t>购物中心；商场</t>
-  </si>
-  <si>
-    <t>cinema</t>
-  </si>
-  <si>
-    <t>电影院</t>
-  </si>
-  <si>
-    <t>have a picnic</t>
-  </si>
-  <si>
-    <t>野餐</t>
-  </si>
-  <si>
-    <t>have a barbecue</t>
-  </si>
-  <si>
-    <t>look at shells</t>
-  </si>
-  <si>
-    <t>观赏贝壳</t>
-  </si>
-  <si>
-    <t>build sandcastles</t>
-  </si>
-  <si>
-    <t>堆沙堡</t>
-  </si>
-  <si>
-    <t>eat pizza</t>
-  </si>
-  <si>
-    <t>吃披萨</t>
-  </si>
-  <si>
-    <t>have a buffet meal</t>
-  </si>
-  <si>
-    <t>吃自助餐</t>
-  </si>
-  <si>
-    <t>watch a film</t>
-  </si>
-  <si>
-    <t>看电影</t>
-  </si>
-  <si>
-    <t>Lesson 13</t>
-  </si>
-  <si>
-    <t>weekend</t>
-  </si>
-  <si>
-    <t>周末</t>
-  </si>
-  <si>
-    <t>hamburger</t>
-  </si>
-  <si>
-    <t>汉堡</t>
-  </si>
-  <si>
-    <t>eat dim sum</t>
-  </si>
-  <si>
-    <t>吃点心</t>
-  </si>
-  <si>
-    <t>Sunday</t>
-  </si>
-  <si>
-    <t>星期日</t>
-  </si>
-  <si>
-    <t>bored</t>
-  </si>
-  <si>
-    <t>（感到）无聊的</t>
-  </si>
-  <si>
-    <t>trousers</t>
-  </si>
-  <si>
-    <t>裤子</t>
-  </si>
-  <si>
-    <t>different</t>
-  </si>
-  <si>
-    <t>不同的</t>
-  </si>
-  <si>
-    <t>rain</t>
-  </si>
-  <si>
-    <t>下雨</t>
-  </si>
-  <si>
-    <t>half an hour</t>
-  </si>
-  <si>
-    <t>半小时</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>免费的；自由的</t>
-  </si>
-  <si>
-    <t>coupon</t>
-  </si>
-  <si>
-    <t>优惠券</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>外送服务</t>
-  </si>
-  <si>
-    <t>spend</t>
-  </si>
-  <si>
-    <t>消费，花费</t>
-  </si>
-  <si>
-    <t>Lesson 14</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>购物</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>乐趣</t>
-  </si>
-  <si>
-    <t>backpack</t>
-  </si>
-  <si>
-    <t>背包</t>
-  </si>
-  <si>
-    <t>handbag</t>
-  </si>
-  <si>
-    <t>手提包</t>
-  </si>
-  <si>
-    <t>wallet</t>
-  </si>
-  <si>
-    <t>皮夹，钱包</t>
-  </si>
-  <si>
-    <t>purse</t>
-  </si>
-  <si>
-    <t>（女士) 钱包</t>
-  </si>
-  <si>
-    <t>手表</t>
-  </si>
-  <si>
-    <t>water bottle</t>
-  </si>
-  <si>
-    <t>水壶</t>
-  </si>
-  <si>
-    <t>lunchbox</t>
-  </si>
-  <si>
-    <t>午餐盒</t>
-  </si>
-  <si>
-    <t>photo frame</t>
-  </si>
-  <si>
-    <t>相框</t>
-  </si>
-  <si>
-    <t>scene</t>
-  </si>
-  <si>
-    <t>场景</t>
-  </si>
-  <si>
-    <t>sale</t>
-  </si>
-  <si>
-    <t>出售，销售</t>
-  </si>
-  <si>
-    <t>garage</t>
-  </si>
-  <si>
-    <t>车库</t>
-  </si>
-  <si>
-    <t>lots of</t>
-  </si>
-  <si>
-    <t>许多</t>
-  </si>
-  <si>
-    <t>Lesson 15</t>
-  </si>
-  <si>
-    <t>how much</t>
-  </si>
-  <si>
-    <t>多少钱</t>
-  </si>
-  <si>
-    <t>It's=It is</t>
-  </si>
-  <si>
-    <t>它是......</t>
-  </si>
-  <si>
-    <t>They're=They are</t>
-  </si>
-  <si>
-    <t>它（他/她）们是......</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>想要</t>
-  </si>
-  <si>
-    <t>sell</t>
-  </si>
-  <si>
-    <t>卖</t>
-  </si>
-  <si>
-    <t>Renminbi</t>
-  </si>
-  <si>
-    <t>人民币（RMB）</t>
-  </si>
-  <si>
     <t>dollar</t>
   </si>
   <si>
-    <t>元；美元</t>
-  </si>
-  <si>
-    <t>forty</t>
-  </si>
-  <si>
-    <t>四十</t>
-  </si>
-  <si>
-    <t>fifty</t>
-  </si>
-  <si>
-    <t>五十</t>
-  </si>
-  <si>
-    <t>sixty</t>
-  </si>
-  <si>
-    <t>六十</t>
-  </si>
-  <si>
-    <t>seventy</t>
-  </si>
-  <si>
-    <t>七十</t>
-  </si>
-  <si>
-    <t>eighty</t>
-  </si>
-  <si>
-    <t>八十</t>
-  </si>
-  <si>
-    <t>ninety</t>
-  </si>
-  <si>
-    <t>九十</t>
-  </si>
-  <si>
-    <t>a / one hundred</t>
-  </si>
-  <si>
-    <t>一百</t>
-  </si>
-  <si>
-    <t>Lesson 16</t>
-  </si>
-  <si>
-    <t>fifty-one</t>
-  </si>
-  <si>
-    <t>五十一</t>
-  </si>
-  <si>
-    <t>sixty-four</t>
-  </si>
-  <si>
-    <t>六十四</t>
-  </si>
-  <si>
-    <t>seventy-three</t>
-  </si>
-  <si>
-    <t>七十三</t>
-  </si>
-  <si>
-    <t>eighty-seven</t>
-  </si>
-  <si>
-    <t>八十七</t>
-  </si>
-  <si>
-    <t>ninety-five</t>
-  </si>
-  <si>
-    <t>九十五</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>手机</t>
-  </si>
-  <si>
-    <t>elephant</t>
-  </si>
-  <si>
-    <t>大象</t>
-  </si>
-  <si>
-    <t>dolphin</t>
-  </si>
-  <si>
-    <t>海豚</t>
-  </si>
-  <si>
-    <t>giraffe</t>
-  </si>
-  <si>
-    <t>长颈鹿</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>钱</t>
-  </si>
-  <si>
-    <t>outside</t>
-  </si>
-  <si>
-    <t>在……的外面，在户外</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>购买</t>
-  </si>
-  <si>
-    <t>a lot of</t>
+    <t>美元</t>
+  </si>
+  <si>
+    <t>not...anymore</t>
+  </si>
+  <si>
+    <t>不再</t>
   </si>
 </sst>
 </file>
@@ -1391,19 +1620,13 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FFE394DC"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1870,13 +2093,16 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1885,127 +2111,121 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2318,10 +2538,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C225"/>
+  <dimension ref="A1:C257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2331,8 +2551,8 @@
     <col min="3" max="3" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -2498,29 +2718,29 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
         <v>35</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
         <v>37</v>
@@ -2531,7 +2751,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
         <v>39</v>
@@ -2542,7 +2762,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>41</v>
@@ -2553,7 +2773,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
         <v>43</v>
@@ -2564,7 +2784,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
         <v>45</v>
@@ -2575,7 +2795,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
         <v>47</v>
@@ -2586,7 +2806,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
@@ -2597,7 +2817,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
         <v>51</v>
@@ -2608,7 +2828,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
         <v>53</v>
@@ -2619,7 +2839,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
         <v>55</v>
@@ -2630,7 +2850,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
         <v>57</v>
@@ -2641,7 +2861,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
         <v>59</v>
@@ -2652,51 +2872,51 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
         <v>61</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>62</v>
-      </c>
-      <c r="C30" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
         <v>64</v>
-      </c>
-      <c r="C31" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
         <v>66</v>
-      </c>
-      <c r="C32" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="s">
         <v>68</v>
-      </c>
-      <c r="C33" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
         <v>70</v>
@@ -2707,7 +2927,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
         <v>72</v>
@@ -2718,7 +2938,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
         <v>74</v>
@@ -2729,7 +2949,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B37" t="s">
         <v>76</v>
@@ -2740,7 +2960,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
         <v>78</v>
@@ -2751,7 +2971,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B39" t="s">
         <v>80</v>
@@ -2762,7 +2982,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B40" t="s">
         <v>82</v>
@@ -2773,7 +2993,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B41" t="s">
         <v>84</v>
@@ -2784,7 +3004,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B42" t="s">
         <v>86</v>
@@ -2795,7 +3015,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B43" t="s">
         <v>88</v>
@@ -2806,73 +3026,73 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" t="s">
         <v>90</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>91</v>
-      </c>
-      <c r="C44" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" t="s">
         <v>93</v>
-      </c>
-      <c r="C45" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" t="s">
         <v>95</v>
-      </c>
-      <c r="C46" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" t="s">
         <v>97</v>
-      </c>
-      <c r="C47" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" t="s">
         <v>99</v>
-      </c>
-      <c r="C48" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" t="s">
         <v>101</v>
-      </c>
-      <c r="C49" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B50" t="s">
         <v>103</v>
@@ -2883,7 +3103,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B51" t="s">
         <v>105</v>
@@ -2894,7 +3114,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B52" t="s">
         <v>107</v>
@@ -2905,7 +3125,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B53" t="s">
         <v>109</v>
@@ -2916,7 +3136,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B54" t="s">
         <v>111</v>
@@ -2927,7 +3147,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B55" t="s">
         <v>113</v>
@@ -2938,7 +3158,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B56" t="s">
         <v>115</v>
@@ -2949,7 +3169,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B57" t="s">
         <v>117</v>
@@ -2960,95 +3180,95 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" t="s">
         <v>119</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>120</v>
-      </c>
-      <c r="C58" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="B59" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" t="s">
         <v>122</v>
-      </c>
-      <c r="C59" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="B60" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" t="s">
         <v>124</v>
-      </c>
-      <c r="C60" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="B61" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" t="s">
         <v>126</v>
-      </c>
-      <c r="C61" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="B62" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" t="s">
         <v>128</v>
-      </c>
-      <c r="C62" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="B63" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" t="s">
         <v>130</v>
-      </c>
-      <c r="C63" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="B64" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" t="s">
         <v>132</v>
-      </c>
-      <c r="C64" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="B65" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65" t="s">
         <v>134</v>
-      </c>
-      <c r="C65" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="B66" t="s">
         <v>136</v>
@@ -3059,211 +3279,211 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="B67" t="s">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="C67" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="B68" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="C68" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="B69" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="C69" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="B70" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="C70" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="B71" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="C71" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B72" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C72" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B73" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C73" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B74" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C74" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B75" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C75" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B76" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C76" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B77" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C77" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B78" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C78" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B79" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C79" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B80" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C80" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B81" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C81" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="B82" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C82" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="B83" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C83" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="B84" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C84" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="B85" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C85" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -3271,10 +3491,10 @@
         <v>168</v>
       </c>
       <c r="B86" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C86" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -3282,10 +3502,10 @@
         <v>168</v>
       </c>
       <c r="B87" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C87" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3293,10 +3513,10 @@
         <v>168</v>
       </c>
       <c r="B88" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C88" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3304,10 +3524,10 @@
         <v>168</v>
       </c>
       <c r="B89" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C89" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3315,10 +3535,10 @@
         <v>168</v>
       </c>
       <c r="B90" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C90" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -3326,10 +3546,10 @@
         <v>168</v>
       </c>
       <c r="B91" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C91" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3337,10 +3557,10 @@
         <v>168</v>
       </c>
       <c r="B92" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C92" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3348,10 +3568,10 @@
         <v>168</v>
       </c>
       <c r="B93" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C93" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3359,10 +3579,10 @@
         <v>168</v>
       </c>
       <c r="B94" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C94" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3370,10 +3590,10 @@
         <v>168</v>
       </c>
       <c r="B95" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C95" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3381,10 +3601,10 @@
         <v>168</v>
       </c>
       <c r="B96" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C96" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3392,1110 +3612,1110 @@
         <v>168</v>
       </c>
       <c r="B97" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C97" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="B98" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="C98" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="B99" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="C99" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B100" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C100" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B101" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C101" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B102" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C102" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B103" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C103" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B104" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C104" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B105" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C105" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B106" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C106" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B107" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C107" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B108" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C108" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B109" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C109" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B110" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C110" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B111" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C111" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B112" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C112" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B113" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C113" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B114" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C114" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B115" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="C115" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B116" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C116" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B117" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C117" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B118" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="C118" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B119" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="C119" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B120" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C120" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B121" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C121" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B122" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="C122" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B123" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C123" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B124" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C124" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B125" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C125" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B126" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C126" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B127" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="C127" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="B128" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C128" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="B129" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C129" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="B130" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C130" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="B131" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="C131" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="B132" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="C132" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="B133" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C133" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="B134" t="s">
-        <v>268</v>
+        <v>49</v>
       </c>
       <c r="C134" t="s">
-        <v>269</v>
+        <v>50</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="B135" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C135" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="B136" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C136" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="B137" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C137" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="B138" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C138" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="B139" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C139" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="B140" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C140" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="B141" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C141" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="B142" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C142" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="B143" t="s">
-        <v>10</v>
+        <v>222</v>
       </c>
       <c r="C143" t="s">
-        <v>287</v>
+        <v>223</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="B144" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C144" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="B145" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C145" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="B146" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C146" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="B147" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C147" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="B148" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C148" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="B149" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C149" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="B150" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C150" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="B151" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C151" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="B152" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C152" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="B153" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C153" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="B154" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C154" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="B155" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C155" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="B156" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C156" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="B157" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C157" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="B158" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C158" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="B159" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C159" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="B160" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C160" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="B161" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C161" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="B162" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C162" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="B163" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C163" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="B164" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="C164" t="s">
-        <v>121</v>
+        <v>335</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="B165" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C165" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="B166" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C166" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="B167" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C167" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="B168" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C168" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="B169" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C169" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="B170" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="C170" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="B171" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C171" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="B172" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="C172" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="B173" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C173" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="B174" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C174" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="B175" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C175" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="B176" t="s">
-        <v>164</v>
+        <v>358</v>
       </c>
       <c r="C176" t="s">
-        <v>165</v>
+        <v>359</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="B177" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="C177" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="B178" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C178" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="B179" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C179" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="B180" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="C180" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="B181" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="C181" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="B182" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="C182" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="B183" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C183" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B184" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="C184" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B185" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C185" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B186" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="C186" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B187" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="C187" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B188" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="C188" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B189" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C189" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B190" t="s">
-        <v>70</v>
+        <v>387</v>
       </c>
       <c r="C190" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B191" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="C191" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B192" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="C192" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B193" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C193" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
       <c r="B194" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="C194" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
       <c r="B195" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="C195" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
       <c r="B196" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="C196" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
       <c r="B197" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="C197" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4503,10 +4723,10 @@
         <v>395</v>
       </c>
       <c r="B198" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="C198" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4514,10 +4734,10 @@
         <v>395</v>
       </c>
       <c r="B199" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="C199" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4525,10 +4745,10 @@
         <v>395</v>
       </c>
       <c r="B200" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="C200" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4536,10 +4756,10 @@
         <v>395</v>
       </c>
       <c r="B201" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="C201" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -4547,10 +4767,10 @@
         <v>395</v>
       </c>
       <c r="B202" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="C202" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4558,10 +4778,10 @@
         <v>395</v>
       </c>
       <c r="B203" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="C203" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4569,10 +4789,10 @@
         <v>395</v>
       </c>
       <c r="B204" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="C204" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4580,10 +4800,10 @@
         <v>395</v>
       </c>
       <c r="B205" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="C205" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4591,10 +4811,10 @@
         <v>395</v>
       </c>
       <c r="B206" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="C206" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -4602,10 +4822,10 @@
         <v>395</v>
       </c>
       <c r="B207" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="C207" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -4613,10 +4833,10 @@
         <v>395</v>
       </c>
       <c r="B208" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C208" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -4624,186 +4844,538 @@
         <v>395</v>
       </c>
       <c r="B209" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="C209" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>395</v>
+        <v>428</v>
       </c>
       <c r="B210" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="C210" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>395</v>
+        <v>428</v>
       </c>
       <c r="B211" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="C211" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B212" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="C212" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B213" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="C213" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B214" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C214" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B215" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="C215" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B216" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C216" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B217" t="s">
-        <v>117</v>
+        <v>443</v>
       </c>
       <c r="C217" t="s">
-        <v>118</v>
+        <v>444</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B218" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="C218" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B219" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="C219" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B220" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="C220" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B221" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="C221" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B222" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="C222" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B223" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="C223" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B224" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="C224" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B225" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="C225" t="s">
-        <v>394</v>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
+        <v>461</v>
+      </c>
+      <c r="B226" t="s">
+        <v>462</v>
+      </c>
+      <c r="C226" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" t="s">
+        <v>461</v>
+      </c>
+      <c r="B227" t="s">
+        <v>464</v>
+      </c>
+      <c r="C227" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" t="s">
+        <v>461</v>
+      </c>
+      <c r="B228" t="s">
+        <v>466</v>
+      </c>
+      <c r="C228" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" t="s">
+        <v>461</v>
+      </c>
+      <c r="B229" t="s">
+        <v>468</v>
+      </c>
+      <c r="C229" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" t="s">
+        <v>461</v>
+      </c>
+      <c r="B230" t="s">
+        <v>470</v>
+      </c>
+      <c r="C230" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
+        <v>461</v>
+      </c>
+      <c r="B231" t="s">
+        <v>472</v>
+      </c>
+      <c r="C231" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" t="s">
+        <v>461</v>
+      </c>
+      <c r="B232" t="s">
+        <v>474</v>
+      </c>
+      <c r="C232" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" t="s">
+        <v>461</v>
+      </c>
+      <c r="B233" t="s">
+        <v>476</v>
+      </c>
+      <c r="C233" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" t="s">
+        <v>461</v>
+      </c>
+      <c r="B234" t="s">
+        <v>478</v>
+      </c>
+      <c r="C234" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
+        <v>461</v>
+      </c>
+      <c r="B235" t="s">
+        <v>480</v>
+      </c>
+      <c r="C235" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" t="s">
+        <v>461</v>
+      </c>
+      <c r="B236" t="s">
+        <v>482</v>
+      </c>
+      <c r="C236" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" t="s">
+        <v>461</v>
+      </c>
+      <c r="B237" t="s">
+        <v>484</v>
+      </c>
+      <c r="C237" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" t="s">
+        <v>461</v>
+      </c>
+      <c r="B238" t="s">
+        <v>486</v>
+      </c>
+      <c r="C238" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" t="s">
+        <v>461</v>
+      </c>
+      <c r="B239" t="s">
+        <v>488</v>
+      </c>
+      <c r="C239" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" t="s">
+        <v>461</v>
+      </c>
+      <c r="B240" t="s">
+        <v>490</v>
+      </c>
+      <c r="C240" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" t="s">
+        <v>461</v>
+      </c>
+      <c r="B241" t="s">
+        <v>492</v>
+      </c>
+      <c r="C241" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" t="s">
+        <v>494</v>
+      </c>
+      <c r="B242" t="s">
+        <v>495</v>
+      </c>
+      <c r="C242" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" t="s">
+        <v>494</v>
+      </c>
+      <c r="B243" t="s">
+        <v>497</v>
+      </c>
+      <c r="C243" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" t="s">
+        <v>494</v>
+      </c>
+      <c r="B244" t="s">
+        <v>499</v>
+      </c>
+      <c r="C244" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" t="s">
+        <v>494</v>
+      </c>
+      <c r="B245" t="s">
+        <v>501</v>
+      </c>
+      <c r="C245" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" t="s">
+        <v>494</v>
+      </c>
+      <c r="B246" t="s">
+        <v>502</v>
+      </c>
+      <c r="C246" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" t="s">
+        <v>494</v>
+      </c>
+      <c r="B247" t="s">
+        <v>504</v>
+      </c>
+      <c r="C247" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" t="s">
+        <v>494</v>
+      </c>
+      <c r="B248" t="s">
+        <v>506</v>
+      </c>
+      <c r="C248" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" t="s">
+        <v>494</v>
+      </c>
+      <c r="B249" t="s">
+        <v>508</v>
+      </c>
+      <c r="C249" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
+        <v>494</v>
+      </c>
+      <c r="B250" t="s">
+        <v>510</v>
+      </c>
+      <c r="C250" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" t="s">
+        <v>494</v>
+      </c>
+      <c r="B251" t="s">
+        <v>512</v>
+      </c>
+      <c r="C251" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="s">
+        <v>494</v>
+      </c>
+      <c r="B252" t="s">
+        <v>514</v>
+      </c>
+      <c r="C252" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" t="s">
+        <v>494</v>
+      </c>
+      <c r="B253" t="s">
+        <v>516</v>
+      </c>
+      <c r="C253" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" t="s">
+        <v>494</v>
+      </c>
+      <c r="B254" t="s">
+        <v>518</v>
+      </c>
+      <c r="C254" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
+        <v>494</v>
+      </c>
+      <c r="B255" t="s">
+        <v>520</v>
+      </c>
+      <c r="C255" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" t="s">
+        <v>494</v>
+      </c>
+      <c r="B256" t="s">
+        <v>522</v>
+      </c>
+      <c r="C256" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" t="s">
+        <v>494</v>
+      </c>
+      <c r="B257" t="s">
+        <v>524</v>
+      </c>
+      <c r="C257" t="s">
+        <v>525</v>
       </c>
     </row>
   </sheetData>
